--- a/TRenesasAll_90H/IC_stock.xlsx
+++ b/TRenesasAll_90H/IC_stock.xlsx
@@ -1,46 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/Desktop/TaskModel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72654562-9F6C-B24A-9C10-B84720FADFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA0MTRFR1NCLTRTMiNIQTA=" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA0MTZFR0JHLTRTMiNBQzA=" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA0MTZFR0JHLTRTMiNLQzA=" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA0MTZFR1NCLTRTMg==" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA0MTZFR1NCLTRTMiNBQTA=" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA0MTZFR1NCLTRTMiNBQTE=" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA0MTZFR1NCLTRTMiNIQTA=" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA0MTZFR1NCLTRTMiNIQTE=" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA4MDhCR1NCLTRTMiNBQTA=" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA4MDhCR1NCLTRTMiNIQTA=" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA4MTZCR0JHLTRTMiNBQzA=" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA4MTZCR0JHLTRTMiNLQzA=" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA4MTZCR1NBLTRTMiNBQTA=" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA4MTZCR1NBLTRTMiNLQTA=" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA4MTZCR1NCLTRTMg==" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA4MTZCR1NELTRTMiNBQTE=" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA4MTZCR1NELTRTMiNBQzA=" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA4MTZCR1NELTRTMiNIQTE=" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjA4MTZCR1NELTRTMiNIQzA=" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjE2MTZBR0JHLTRVMiNLQzA=" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjE2MTZBR0JHLTVTMiNBQzA=" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjE2MTZBR0JHLTVTMiNLQzA=" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjE2MTZBR1NBLTVTMiNBQTA=" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjE2MTZBR1NBLTVTMiNLQTA=" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjE2MTZBR1NBLTVVMiNLQTA=" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjE2MTZBR1NELTVTMg==" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjE2MTZBR1NELTVTMiNBQTE=" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjE2MTZBR1NELTVTMiNBQzA=" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjE2MTZBR1NELTVTMiNIQTE=" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjMyMTZBR0JHLTVTMiNBQzA=" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjMyMTZBR0JHLTVTMiNLQzA=" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjMyMTZBR1NBLTVTMiNLQTA=" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjMyMTZBR1NELTVTMiNBQTA=" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1MVjMyMTZBR1NELTVTMiNIQTA=" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RQzRBMTgxOERHQkEtMzAyI0FDMA==" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RQzRBMTgzNkRHQkEtMzAyI0FDMA==" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RQzRBMzYxOERHQkEtMzAyI0FDMA==" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RQzRBMzYzNkRHQkEtMzAyI0FDMA==" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RQ0VBMzYxOERHQkEtMTgyI0FDMA==" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RQ0VBMzYzNkRHQkEtMTgyI0FDMA==" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RQ0hBMzYxOERHQkEtMjIyI0FDMA==" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RQ0hBMzYzNkRHQkEtMjIyI0FDMA==" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RUzJBMTgxOERHQkEtMzMyI0FDMA==" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RUzJBMTgzNkRHQkEtMzMyI0FDMA==" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RUzJBMzYxOERHQkEtMzMyI0FDMA==" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RUzJBMzYzNkRHQkEtMzMyI0FDMA==" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RUzNBMTgzNkRHQkEtMzAyI0FDMA==" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RUzNBMzYzNkRHQkEtMzAyI0FDMA==" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RU0RBMzYxOERHQkEtMTgyI0FDMA==" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1RU0RBMzYzNkRHQkEtMTgyI0FDMA==" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1XVjMyMTZBR0JHLTVTMiNBQzA=" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1XVjMyMTZBR0JHLTVTMiNBS0Mw" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1XVjMyMTZBR0JHLTVTMiNLQzA=" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1XVjY0MTZBR0JHNVMy" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1XVjY0MTZBR0JHLTVTMiNBQzA=" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1XVjY0MTZBR0JHLTVTMiNLQzA=" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1XVjY0MTZBR1NBLTVTMiNBQTA=" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1XVjY0MTZBR1NELTVTMiNIQTA=" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uk1XVjY0MTZBR1NELTVTMiNZQjA=" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UllaMDE0QTAwMEZaMDAjSEQw" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UllaMDE0QS1HQi1FVks=" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTI1UEZJOA==" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTM1Sg==" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTM1Sjg=" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTM1Skc4" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTM1UEY=" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTM1UEY4" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTQ1Sg==" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTQ1Sjg=" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTQ1Skk=" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTQ1Skk4" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTU1Sg==" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTU1Sjg=" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTU1UEY=" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTU1UEY4" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTU1UEZH" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTU1UEZJ" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTU1UEZJOA==" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTcwSg==" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTcwSjg=" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTcwSkk=" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJMQTcwSkk4" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTIwSg==" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTIwSjg=" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTIwUEY=" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTIwUEY4" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTI1Sg==" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTI1Sjg=" sheetId="89" state="visible" r:id="rId89"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTI1Skk=" sheetId="90" state="visible" r:id="rId90"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTI1Skk4" sheetId="91" state="visible" r:id="rId91"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTI1UEY=" sheetId="92" state="visible" r:id="rId92"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTI1UEZJ" sheetId="93" state="visible" r:id="rId93"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTI1UEZJOA==" sheetId="94" state="visible" r:id="rId94"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTM1Sg==" sheetId="95" state="visible" r:id="rId95"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTM1Sjg=" sheetId="96" state="visible" r:id="rId96"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTM1Skk=" sheetId="97" state="visible" r:id="rId97"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTM1Skk4" sheetId="98" state="visible" r:id="rId98"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTM1UEY4" sheetId="99" state="visible" r:id="rId99"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTQ1Sg==" sheetId="100" state="visible" r:id="rId100"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTQ1Sjg=" sheetId="101" state="visible" r:id="rId101"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTU1Sg==" sheetId="102" state="visible" r:id="rId102"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTU1Sjg=" sheetId="103" state="visible" r:id="rId103"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTU1Skc=" sheetId="104" state="visible" r:id="rId104"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTU1Skk=" sheetId="105" state="visible" r:id="rId105"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTU1Skk4" sheetId="106" state="visible" r:id="rId106"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTU1UEY=" sheetId="107" state="visible" r:id="rId107"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTU1UEY4" sheetId="108" state="visible" r:id="rId108"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTU1UEZJ" sheetId="109" state="visible" r:id="rId109"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTU1UEZJOA==" sheetId="110" state="visible" r:id="rId110"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTcwSg==" sheetId="111" state="visible" r:id="rId111"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTcwSjg=" sheetId="112" state="visible" r:id="rId112"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTcwSkk=" sheetId="113" state="visible" r:id="rId113"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNDJTQTcwSkk4" sheetId="114" state="visible" r:id="rId114"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNEJLQ0ox" sheetId="115" state="visible" r:id="rId115"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNExBMjBK" sheetId="116" state="visible" r:id="rId116"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNExBMjBKOA==" sheetId="117" state="visible" r:id="rId117"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNExBMjBKRw==" sheetId="118" state="visible" r:id="rId118"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNExBMjBKRzg=" sheetId="119" state="visible" r:id="rId119"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNExBMjBKSQ==" sheetId="120" state="visible" r:id="rId120"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNExBMjBKSTg=" sheetId="121" state="visible" r:id="rId121"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNExBMjBQ" sheetId="122" state="visible" r:id="rId122"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNExBMjBQREc=" sheetId="123" state="visible" r:id="rId123"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNExBMjVK" sheetId="124" state="visible" r:id="rId124"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNExBMjVKOA==" sheetId="125" state="visible" r:id="rId125"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzEzNExBMjVKR0k=" sheetId="126" state="visible" r:id="rId126"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,21 +178,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -361,8 +539,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
@@ -370,7 +552,4385 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市众芯创科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RMLV0808BGSB-4S2#HA0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>5419</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市南方天信科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RMLV0816BGBG-4S2#KC0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>2410</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市科盛先锋科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RMLV0816BGSA-4S2#AA0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市创海盛业电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RMLV0816BGSB-4S2#HA0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市合达信电子有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>RMLV0816BGSB-4S2#AA0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市创海盛业电子有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RMLV0816BGSB-4S2#AA0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>RMLV0816BGSB-4S2#AA0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市森亿欧科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RMLV1616AGSA-5S2#AA0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市众芯联合电子有限责任公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>RMLV1616AGSA-5S2#AA0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市昂远科技有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RMLV1616AGSA-5S2#AA0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RMLV1616AGSA-5S2#KA0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RMLV1616AGSD-5S2#AA1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1650</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RMLV1616AGSD-5S2#AA1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1650</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RMLV0416EGBG-4S2#AC0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市盛鸿电子信息科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RMQS2A3636DGBA-332#AC0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市德诺芯微电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#AA1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市金灿利电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#HA1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>盈创（深圳）半导体有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>瑞萨/日本产地/超低价</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>深圳市捷芯盛科技有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#HA1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>佑润科技（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#HA1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>深圳微元盛世科技有限公司</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2768</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>深圳市鸿图展业电子有限公司</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#AA1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>深圳市朝锋电子有限公司</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#AA1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>盈创（深圳）半导体有限公司</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>深圳市捷芯盛科技有限公司</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#HA1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>深圳市森亿欧科技有限公司</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#AA1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#AA1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>深圳市雄芯源科技有限公司</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#AA1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>深圳市英恒健科技有限公司</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#HA1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>深圳领先芯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#HA1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市维纳亿电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RMWV3216AGBG-5S2#AC0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>HotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市德诺芯微电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#AA1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市鸿图展业电子有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#AA1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市朝锋电子有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#AA1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>深圳市森亿欧科技有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#AA1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#AA1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>深圳市雄芯源科技有限公司</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#AA1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市金灿利电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#HA1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市捷芯盛科技有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#HA1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>佑润科技（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#HA1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>深圳市鸿图展业电子有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#HA1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>深圳市捷芯盛科技有限公司</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#HA1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#HA1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>深圳市英恒健科技有限公司</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#HA1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>深圳领先芯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>RMLV0416EGSB-4S2#HA1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>